--- a/lab3/src/main/resources/excel.xlsx
+++ b/lab3/src/main/resources/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\lab3\lab3\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC0710-66D8-4CD8-BEBA-C9C6F4495FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AFFC90-8C47-4235-8178-8A94022154A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B964104F-8253-4191-8AD7-A1321193D50E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B964104F-8253-4191-8AD7-A1321193D50E}"/>
   </bookViews>
   <sheets>
     <sheet name="reactors" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="kiums" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="1503">
   <si>
     <t>ID_reactor</t>
   </si>
@@ -4659,6 +4660,9 @@
   </si>
   <si>
     <t>State Enterprise “National Nuclear Energy Generating Company ‘Energoatom”</t>
+  </si>
+  <si>
+    <t>VVER-1200</t>
   </si>
 </sst>
 </file>
@@ -4809,9 +4813,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4849,7 +4853,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4955,7 +4959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5097,7 +5101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5107,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E0900C-5E87-431A-B5BD-22825F3439A7}">
   <dimension ref="A1:O478"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A462" sqref="A462"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5297,7 +5301,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -5329,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -5655,7 +5659,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -5687,7 +5691,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -7703,7 +7707,7 @@
         <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>130</v>
@@ -7735,7 +7739,7 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>130</v>
@@ -7767,7 +7771,7 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>130</v>
@@ -7799,7 +7803,7 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>130</v>
@@ -7831,7 +7835,7 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>130</v>
@@ -8215,7 +8219,7 @@
         <v>148</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>156</v>
@@ -8247,7 +8251,7 @@
         <v>149</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>156</v>
@@ -10936,7 +10940,7 @@
         <v>245</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D181" t="s">
         <v>247</v>
@@ -10968,7 +10972,7 @@
         <v>246</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D182" t="s">
         <v>247</v>
@@ -11416,7 +11420,7 @@
         <v>263</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D196" t="s">
         <v>264</v>
@@ -13711,7 +13715,7 @@
         <v>356</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>156</v>
@@ -13743,7 +13747,7 @@
         <v>357</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>156</v>
@@ -13775,7 +13779,7 @@
         <v>358</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>156</v>
@@ -13807,7 +13811,7 @@
         <v>359</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>156</v>
@@ -14034,7 +14038,7 @@
         <v>371</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>372</v>
@@ -14066,7 +14070,7 @@
         <v>373</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>372</v>
@@ -14098,7 +14102,7 @@
         <v>374</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>156</v>
@@ -14130,7 +14134,7 @@
         <v>375</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>156</v>
@@ -14421,7 +14425,7 @@
         <v>386</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>26</v>
@@ -14453,7 +14457,7 @@
         <v>387</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>26</v>
@@ -14619,7 +14623,7 @@
         <v>392</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>393</v>
@@ -14651,7 +14655,7 @@
         <v>394</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>393</v>
@@ -14750,7 +14754,7 @@
         <v>398</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>399</v>
@@ -14782,7 +14786,7 @@
         <v>400</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>156</v>
@@ -14814,7 +14818,7 @@
         <v>401</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>156</v>
@@ -14846,7 +14850,7 @@
         <v>402</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>156</v>
@@ -14878,7 +14882,7 @@
         <v>403</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>156</v>
@@ -16013,7 +16017,7 @@
         <v>446</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D337" t="s">
         <v>156</v>
@@ -16045,7 +16049,7 @@
         <v>447</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D338" t="s">
         <v>156</v>
@@ -16141,7 +16145,7 @@
         <v>450</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D341" t="s">
         <v>156</v>
@@ -16173,7 +16177,7 @@
         <v>451</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D342" t="s">
         <v>156</v>
@@ -16205,7 +16209,7 @@
         <v>452</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D343" t="s">
         <v>453</v>
@@ -16237,7 +16241,7 @@
         <v>454</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D344" t="s">
         <v>372</v>
@@ -16269,7 +16273,7 @@
         <v>455</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D345" t="s">
         <v>156</v>
@@ -16301,7 +16305,7 @@
         <v>456</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D346" t="s">
         <v>156</v>
@@ -16333,7 +16337,7 @@
         <v>457</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D347" t="s">
         <v>156</v>
@@ -16365,7 +16369,7 @@
         <v>458</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D348" t="s">
         <v>156</v>
@@ -16397,7 +16401,7 @@
         <v>459</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D349" t="s">
         <v>156</v>
@@ -16429,7 +16433,7 @@
         <v>460</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D350" t="s">
         <v>156</v>
@@ -16461,7 +16465,7 @@
         <v>461</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>15</v>
+        <v>1502</v>
       </c>
       <c r="D351" t="s">
         <v>156</v>
@@ -22193,7 +22197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0EFCE-58E0-4ACF-A03A-609538A370F2}">
   <dimension ref="A1:D3904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3885" workbookViewId="0">
+    <sheetView topLeftCell="A3885" workbookViewId="0">
       <selection activeCell="A3899" sqref="A3899"/>
     </sheetView>
   </sheetViews>
